--- a/assets/template/template.xlsx
+++ b/assets/template/template.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bku_rekt\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\-BKU REKTORAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95C706A-E022-42C3-BC31-4FA6E493F297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA7BAE0-DCE0-4B71-92DB-F9A04AE1936F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{6B12CBCE-DF5F-4027-84D2-FF3E52F4AEF0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DAA1265B-2F08-4CC4-8DA7-9EA8F09D305B}"/>
   </bookViews>
   <sheets>
-    <sheet name="No Trx" sheetId="1" r:id="rId1"/>
-    <sheet name="Trx" sheetId="2" r:id="rId2"/>
-    <sheet name="Aturan" sheetId="3" r:id="rId3"/>
-    <sheet name="Master" sheetId="5" r:id="rId4"/>
+    <sheet name="Kontrol Transaksi" sheetId="1" r:id="rId1"/>
+    <sheet name="Aturan" sheetId="3" r:id="rId2"/>
+    <sheet name="Master Data" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,140 +33,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+  <si>
+    <t>Jenis</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>MAK</t>
+  </si>
+  <si>
+    <t>Penerima</t>
+  </si>
+  <si>
+    <t>Uraian</t>
+  </si>
+  <si>
+    <t>Jumlah Kotor</t>
+  </si>
+  <si>
+    <t>PPn</t>
+  </si>
+  <si>
+    <t>PPh 21</t>
+  </si>
+  <si>
+    <t>PPh 22</t>
+  </si>
+  <si>
+    <t>PPh 23</t>
+  </si>
+  <si>
+    <t>PPh 4(2)</t>
+  </si>
+  <si>
+    <t>Bank/Tunai</t>
+  </si>
+  <si>
+    <t>GU/LS</t>
+  </si>
+  <si>
+    <t>Pajak</t>
+  </si>
+  <si>
+    <t>Penerimaan</t>
+  </si>
+  <si>
+    <t>Pengeluaran</t>
+  </si>
+  <si>
+    <t>Metode Pembayaran</t>
+  </si>
+  <si>
+    <t>Jenis Pembayaran</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Tunai</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Utama</t>
+  </si>
+  <si>
+    <t>Jumlah Bersih</t>
+  </si>
   <si>
     <t>Nomor Bukti</t>
-  </si>
-  <si>
-    <t>Tanggal</t>
-  </si>
-  <si>
-    <t>Uraian</t>
-  </si>
-  <si>
-    <t>MAK</t>
-  </si>
-  <si>
-    <t>Penerima</t>
-  </si>
-  <si>
-    <t>Jumlah Kotor</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>PPh 21</t>
-  </si>
-  <si>
-    <t>PPh 22</t>
-  </si>
-  <si>
-    <t>PPh 23</t>
-  </si>
-  <si>
-    <t>PPh 4(2)</t>
-  </si>
-  <si>
-    <t>Bank</t>
-  </si>
-  <si>
-    <t>GU</t>
-  </si>
-  <si>
-    <t>Bank/Tunai</t>
-  </si>
-  <si>
-    <t>GU/LS</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>Ya</t>
-  </si>
-  <si>
-    <t>Tidak</t>
-  </si>
-  <si>
-    <t>Rektorat</t>
-  </si>
-  <si>
-    <t>Fakultas Pertanian</t>
-  </si>
-  <si>
-    <t>Fakultas Ekonomi</t>
-  </si>
-  <si>
-    <t>Fakultas Hukum</t>
-  </si>
-  <si>
-    <t>Fakultas Ilmu Sosial dan Ilmu Politik</t>
-  </si>
-  <si>
-    <t>Fakultas Kedokteran</t>
-  </si>
-  <si>
-    <t>Fakultas Keguruan dan Ilmu Pendidikan</t>
-  </si>
-  <si>
-    <t>Fakultas Matematikan dan Ilmu Pengetahuan Alam</t>
-  </si>
-  <si>
-    <t>Fakultas Teknik</t>
-  </si>
-  <si>
-    <t>Program Pasca Sarjana</t>
-  </si>
-  <si>
-    <t>LAB ALAM</t>
-  </si>
-  <si>
-    <t>UPT Bahasa</t>
-  </si>
-  <si>
-    <t>LAB TERPADU</t>
-  </si>
-  <si>
-    <t>UPT Laboratorium Lahan Gambut</t>
-  </si>
-  <si>
-    <t>LP3MP</t>
-  </si>
-  <si>
-    <t>LPPM</t>
-  </si>
-  <si>
-    <t>UPT Perpustakaan</t>
-  </si>
-  <si>
-    <t>UPT TIK</t>
-  </si>
-  <si>
-    <t>PPn</t>
-  </si>
-  <si>
-    <t>Tunai</t>
-  </si>
-  <si>
-    <t>Metode Pembayaran</t>
-  </si>
-  <si>
-    <t>Jenis Pembayaran</t>
-  </si>
-  <si>
-    <t>Pilihan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,25 +146,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,12 +169,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -252,87 +204,84 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -353,22 +302,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40005096-4C17-4DAC-9E65-6C6E4498904B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8583EE-AA7A-44BA-8CEA-2925BEDD79FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -376,8 +325,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="167640" y="83820"/>
-          <a:ext cx="4236720" cy="1691640"/>
+          <a:off x="99060" y="76200"/>
+          <a:ext cx="4236720" cy="3070860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -410,15 +359,26 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Sheet "No Trx":</a:t>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sheet "Kontrol Transaksi":</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A. Transaksi Utama</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -459,7 +419,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>2. Isikan data sesuai data real.</a:t>
+            <a:t>2. Isikan data sesuai data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>real</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -470,7 +446,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>3. Data nomor transaksi akan menjadi data acuan untuk mengisi data transaksi di sheet "Trx".</a:t>
+            <a:t>3. Untuk kolom jenis selalu pilih "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>utama"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -481,7 +473,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4. Setiap </a:t>
+            <a:t>4. Kolom </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
@@ -489,15 +481,35 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>nomor bukti </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>yang digunakan di data transaksi harus di definisikan di sheet ini terlebih dahulu.</a:t>
+            <a:t>"tanggal", </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"nomor bukti" ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"penerima", "uraian", "jumlah kotor", "bank/tunai", "gu/ls" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>wajib diisi.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -508,7 +520,177 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>5. Tidak diperbolehkan melakukan pengaturan lain berbeda dari template awal</a:t>
+            <a:t>5. Format </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"tanggal" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ialah YYYY-MM-DD.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6. Pastikan </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"nomor bukti" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tidak sama satu baris dengan baris yang lain.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7. Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"jumlah bersih" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tidak diketik karena menggunakan rumus, cukup ditarik kebawah.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8. Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"pengeluaran" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tidak diketik karena menggunakan rumus, cukup ditarik kebawah.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9. Kosongkan data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"pajak" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>yang tidak ada.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10. Tidak diperbolehkan melakukan pengaturan lain berbeda dari template awal.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -526,22 +708,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EB413F-C4D4-4D84-A97C-4B13E8118F4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566A88FD-63DF-4C67-AAD3-41626A1FF634}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -549,8 +731,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="83820"/>
-          <a:ext cx="4236720" cy="1699260"/>
+          <a:off x="4549140" y="99060"/>
+          <a:ext cx="5021580" cy="3253740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -579,23 +761,67 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Sheet "Trx":</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sheet "Kontrol Transaksi":</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B. Transaksi Unit/Detail</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Transaksi</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>1. Isi data secara vertikal</a:t>
           </a:r>
@@ -604,6 +830,10 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
@@ -612,6 +842,10 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>sesuai</a:t>
           </a:r>
@@ -620,149 +854,535 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t> kolom yang diberi nama.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2. Isikan data sesuai data real.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3. Data </a:t>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. Isikan data sesuai data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>real</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. Untuk kolom jenis selalu pilih "</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>nomor transaksi </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>berdasarkan acuan dari data </a:t>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>unit"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. Kolom "</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>nomor transaksi </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>di sheet "No Trx"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4. Data </a:t>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>no. bukti" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>samakan dengan diatasnya (no. bukti transaksi utama).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. Kosongkan kolom </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>pajak</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> berupa pilihan </a:t>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"penerimaan" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>atau </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>ya/tidak</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>, akan dihitung sesuai rumus perpajakan secara otomatis ketika di import ke web.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>5. Data </a:t>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"pengeluaraan".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6. Kolom </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>jumlah bersih </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>dan </a:t>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"tanggal", "no. bukti", "penerima", "uraian", "jumlah kotor", "bank/tunai", "gu/ls" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>wajib diisi.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7. Pastikan </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>total pajak </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>akan dihiutng ketika diimport ke web.</a:t>
-          </a:r>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"nomor bukti" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> sama dengan data transaksi utamanya.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8. Format </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"tanggal" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ialah YYYY-MM-DD.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9. Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"jumlah bersih" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tidak diketik karena menggunakan rumus, cukup ditarik kebawah.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10. Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"pengeluaran" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tidak diketik karena menggunakan rumus, cukup ditarik kebawah.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11. Kosongkan data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"pajak" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>yang tidak ada.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12. Tidak diperbolehkan melakukan pengaturan lain berbeda dari template awal.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1075,163 +1695,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D385827-F62E-4A82-AD5D-D80FB414A5ED}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F6C51C-CA0A-4475-AF47-3581B69ACD68}">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="21"/>
-    <col min="3" max="3" width="15.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="12.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="8.88671875" style="10"/>
+    <col min="13" max="13" width="12.88671875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" style="11" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="12"/>
+    <col min="18" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="7"/>
+    <row r="2" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G3" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R8oL9Ott5CVC8R3pghl1CjJya5Oh2YOIVsNgCzndaj5p0JOFhWk4YhNCdYnsSkCr7IGDNI2LGsh9PmivIK9b+g==" saltValue="UO92qjfbZHOH+lWPjbeSMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181B0D07-172B-41B1-A482-A97DEED5A5A1}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4"/>
-    <col min="5" max="5" width="45.109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.88671875" style="4"/>
-    <col min="12" max="12" width="10.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="4"/>
-    <col min="14" max="14" width="15.33203125" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="17" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U1AsYCyFeTPY7IeslsJCBucHEbhuUePg2cSj6hoaB6SBCtwq6XzMl4d3kYG3azikO1C52n6/Z+8BYgtpz8SQ3Q==" saltValue="c/kEfTmSogELPedNvPSOYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="85Z7Ftvk6TZacZoGq9ZlqI+iizCQBOCIe0BtF224oIuPDt8CX2JqIc9nkKz01BC33P20xhwL9bn4HvnnzvVhkw==" saltValue="WJ9aJiYQGxH8RP4OaNOSrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="13">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99DD2308-BFBF-4D8C-88D4-C5A2DA96DDDE}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6CDBBEE4-B351-4D4D-9984-732F19F6355D}">
           <x14:formula1>
-            <xm:f>Master!$E$2:$E$3</xm:f>
+            <xm:f>'Master Data'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1048576 H2:H1048576 I2:I1048576 J2:J1048576 K2:K1048576</xm:sqref>
+          <xm:sqref>P3:P1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EACD4914-64C3-4BAE-913E-C25F69699CE4}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D108428-617F-4D58-A5E1-5BE09B17C212}">
           <x14:formula1>
-            <xm:f>Master!$A$2:$A$3</xm:f>
+            <xm:f>'Master Data'!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L1048576</xm:sqref>
+          <xm:sqref>Q3:Q1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2EF53B0F-7E38-439B-B529-4C84F3C8301F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F2811CD-82E7-4897-AD94-0CBA65F5A6E3}">
           <x14:formula1>
-            <xm:f>Master!$C$2:$C$3</xm:f>
+            <xm:f>'Master Data'!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DDE7591-9CDC-4CDD-81EE-5F20143B4D5F}">
-          <x14:formula1>
-            <xm:f>Master!$G$2:$G$19</xm:f>
-          </x14:formula1>
-          <xm:sqref>N2:N1048576</xm:sqref>
+          <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1239,162 +1843,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781D36AE-C2F8-458A-9448-E4B3AFD54639}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8485484-3CB7-45DD-83E5-F62039F4FA8C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <sheetProtection algorithmName="SHA-512" hashValue="OzWKZADjUfu2Az1XP7DmIEvM5fVKWZaW1CFzqSg9RK6Ghy8jlir3uazzRwTxCvTqsoEXCw90wDzncC3GGF9kfQ==" saltValue="Kl6h7lU8SED4zuiGeXzJSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RkTeokHQuAuadHU9WMLzZs3pIrjKSRqZN2MprwH+nin/9IyhItK36ADgQFWtpeTd4ry0jG6NDSJsGVYU2AMyng==" saltValue="Nx/cHBmwrNZ5zbVXTH4Zxg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3254E227-DA86-48BD-BB36-D29987E7C344}">
-  <dimension ref="A1:G19"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755471FA-5A65-4DED-B4E5-5F1526B58EAA}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G6" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aTJJusq/SUeWDMrFykQrQQ/NqBMawnprlVW1y0jVLUTFOlnMEYWi3NhmMNFmzeytDmaxgg7/VeLcWC/Tbm+oKA==" saltValue="7MWGbRtPRBSRdrIKj8+tgA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RWUPxXskkjzu3FS2Vlqy6Ow58+y5qoDRPY/6isqjleK4HtTL5fqQxEVxCaUP/zsP2V3CkiO+MBuG9D1inW2AxQ==" saltValue="A/l651AxPJHUNV1porMfLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/template/template.xlsx
+++ b/assets/template/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\-BKU REKTORAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA7BAE0-DCE0-4B71-92DB-F9A04AE1936F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252F855B-0AA2-40DC-92DF-06FEF57738EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DAA1265B-2F08-4CC4-8DA7-9EA8F09D305B}"/>
   </bookViews>
@@ -22,18 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Jenis</t>
   </si>
@@ -111,6 +105,9 @@
   </si>
   <si>
     <t>Nomor Bukti</t>
+  </si>
+  <si>
+    <t>Transfer BP</t>
   </si>
 </sst>
 </file>
@@ -119,9 +116,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;???_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -225,7 +222,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -237,14 +234,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -252,14 +249,24 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -267,16 +274,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1699,7 +1696,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1720,86 +1717,92 @@
     <col min="18" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="21" t="s">
+    <row r="2" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G3" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="85Z7Ftvk6TZacZoGq9ZlqI+iizCQBOCIe0BtF224oIuPDt8CX2JqIc9nkKz01BC33P20xhwL9bn4HvnnzvVhkw==" saltValue="WJ9aJiYQGxH8RP4OaNOSrg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rZSf8+5EPoTC9F9IBn6SU/AFQMFcbnKcP1msUGBUvN9sK4OtJikO7IlJA6aFcoFrZfJw3S1cQQR+Onh49jzq2A==" saltValue="p4JwyRlH+fQSZqCcgmBD3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:L1"/>
@@ -1807,24 +1810,12 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6CDBBEE4-B351-4D4D-9984-732F19F6355D}">
-          <x14:formula1>
-            <xm:f>'Master Data'!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>P3:P1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D108428-617F-4D58-A5E1-5BE09B17C212}">
           <x14:formula1>
             <xm:f>'Master Data'!$C$2:$C$3</xm:f>
@@ -1836,6 +1827,12 @@
             <xm:f>'Master Data'!$E$2:$E$3</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{91A26192-F10C-47D6-838C-A602E6FB9AA2}">
+          <x14:formula1>
+            <xm:f>'Master Data'!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>P1:P1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1861,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755471FA-5A65-4DED-B4E5-5F1526B58EAA}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1907,8 +1904,13 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RWUPxXskkjzu3FS2Vlqy6Ow58+y5qoDRPY/6isqjleK4HtTL5fqQxEVxCaUP/zsP2V3CkiO+MBuG9D1inW2AxQ==" saltValue="A/l651AxPJHUNV1porMfLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rr2XOORkmbMggaNHYveg1dVRm7SdFkYSvacbP1ib9b20OgloAMs/tUWmyHeEtRHuwZ+0pOltEusgtIlvRgDbrw==" saltValue="HNsFYM35m1nXBINGh2loKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/template/template.xlsx
+++ b/assets/template/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bku_rekt\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252F855B-0AA2-40DC-92DF-06FEF57738EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8E37F8-D809-4A68-9E91-12352989C54D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DAA1265B-2F08-4CC4-8DA7-9EA8F09D305B}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,23 +257,30 @@
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1695,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F6C51C-CA0A-4475-AF47-3581B69ACD68}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1709,7 +1716,7 @@
     <col min="6" max="6" width="24.5546875" style="8" customWidth="1"/>
     <col min="7" max="7" width="13.21875" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="8.88671875" style="10"/>
-    <col min="13" max="13" width="12.88671875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="23" customWidth="1"/>
     <col min="14" max="14" width="13.109375" style="11" customWidth="1"/>
     <col min="15" max="15" width="12.88671875" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.21875" style="12" bestFit="1" customWidth="1"/>
@@ -1718,58 +1725,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
@@ -1785,24 +1792,22 @@
       <c r="L2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G3" s="9"/>
+      <c r="M3" s="23">
+        <f>G3-(SUM(H3:L3))</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rZSf8+5EPoTC9F9IBn6SU/AFQMFcbnKcP1msUGBUvN9sK4OtJikO7IlJA6aFcoFrZfJw3S1cQQR+Onh49jzq2A==" saltValue="p4JwyRlH+fQSZqCcgmBD3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:L1"/>
@@ -1810,6 +1815,12 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/assets/template/template.xlsx
+++ b/assets/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bku_rekt\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8E37F8-D809-4A68-9E91-12352989C54D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3FBC30-4D65-45B8-AD04-E7FC537453C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DAA1265B-2F08-4CC4-8DA7-9EA8F09D305B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Jenis</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Transfer BP</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>BPP FISIP</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +160,14 @@
       <color rgb="FF006100"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -204,7 +218,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,11 +271,24 @@
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,17 +296,10 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -313,8 +333,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -330,7 +350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="99060" y="76200"/>
-          <a:ext cx="4236720" cy="3070860"/>
+          <a:ext cx="4236720" cy="3512820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -505,7 +525,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>"penerima", "uraian", "jumlah kotor", "bank/tunai", "gu/ls" </a:t>
+            <a:t>"uraian", "jumlah kotor", "bank/tunai", "gu/ls" </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -679,6 +699,144 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>yang tidak ada.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10. Isi "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>penerima</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>" berarti wajib memilih data "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>" dengan data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"-".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11. Kosongkan data "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>penerima</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>" jika penerima yang dimaksud merupakan unit, dan isi "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>" berdasarkan data yang ada.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0">
             <a:solidFill>
@@ -694,7 +852,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>10. Tidak diperbolehkan melakukan pengaturan lain berbeda dari template awal.</a:t>
+            <a:t>12. Tidak diperbolehkan melakukan pengaturan lain berbeda dari template awal.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -720,7 +878,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -736,7 +894,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4549140" y="99060"/>
-          <a:ext cx="5021580" cy="3253740"/>
+          <a:ext cx="5021580" cy="3360420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1082,7 +1240,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>"tanggal", "no. bukti", "penerima", "uraian", "jumlah kotor", "bank/tunai", "gu/ls" </a:t>
+            <a:t>"tanggal", "no. bukti", "uraian", "jumlah kotor", "bank/tunai", "gu/ls" </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -1361,7 +1519,70 @@
             </a:rPr>
             <a:t>yang tidak ada.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" b="1">
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12. Kosongkan data "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>penerima</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>" dan "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>".</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1379,7 +1600,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>12. Tidak diperbolehkan melakukan pengaturan lain berbeda dari template awal.</a:t>
+            <a:t>13. Tidak diperbolehkan melakukan pengaturan lain berbeda dari template awal.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:solidFill>
@@ -1394,6 +1615,247 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8C8622-FE5E-42A9-BD40-FE93E3F65D23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9745980" y="121920"/>
+          <a:ext cx="3970020" cy="1127760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sheet "Master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>":</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A. Unit</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. Diperbolehkan menghapus atau menambah data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Pastikan data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> yang dihapus dan ditambahkan sama dengan data unit pada website di bagian menu </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Data Master &gt; Unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1700,10 +2162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F6C51C-CA0A-4475-AF47-3581B69ACD68}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1716,67 +2178,71 @@
     <col min="6" max="6" width="24.5546875" style="8" customWidth="1"/>
     <col min="7" max="7" width="13.21875" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="8.88671875" style="10"/>
-    <col min="13" max="13" width="12.88671875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="16" customWidth="1"/>
     <col min="14" max="14" width="13.109375" style="11" customWidth="1"/>
     <col min="15" max="15" width="12.88671875" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.21875" style="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" style="12"/>
-    <col min="18" max="16384" width="8.88671875" style="4"/>
+    <col min="18" max="18" width="8.88671875" style="25"/>
+    <col min="19" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="22" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="19" t="s">
         <v>12</v>
       </c>
+      <c r="R1" s="24" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="21"/>
+    <row r="2" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
@@ -1792,22 +2258,33 @@
       <c r="L2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G3" s="9"/>
-      <c r="M3" s="23">
+      <c r="M3" s="16">
         <f>G3-(SUM(H3:L3))</f>
         <v>0</v>
       </c>
+      <c r="R3" s="25" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="13">
+  <sheetProtection algorithmName="SHA-512" hashValue="ePBu5K5/gORXiS0iSHnSUt29XeEdvU0GK7BuW/uvZO5tqxaDXPgaERAxmhp/aUQx/UqPW2J2jggooC+dhjnBug==" saltValue="jcHdxQ3tH6r1FiUmjMxbIA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <mergeCells count="14">
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:L1"/>
@@ -1815,18 +2292,12 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D108428-617F-4D58-A5E1-5BE09B17C212}">
           <x14:formula1>
             <xm:f>'Master Data'!$C$2:$C$3</xm:f>
@@ -1845,6 +2316,12 @@
           </x14:formula1>
           <xm:sqref>P1:P1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E2229D95-FB43-4389-8D9A-F2233FEEB159}">
+          <x14:formula1>
+            <xm:f>'Master Data'!$G$2:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>R3</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1856,12 +2333,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <sheetProtection algorithmName="SHA-512" hashValue="RkTeokHQuAuadHU9WMLzZs3pIrjKSRqZN2MprwH+nin/9IyhItK36ADgQFWtpeTd4ry0jG6NDSJsGVYU2AMyng==" saltValue="Nx/cHBmwrNZ5zbVXTH4Zxg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="quZ9xw6arQqp0TtaQlSWSKZdkOnOmgezY+9zRmdjyvOiMFGyGHtN1Zkqy1zdgdaTBN3e3dvoEpsSIlL3W82Gww==" saltValue="Gd8fw6MKWG0VTxi/eOkEVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1869,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755471FA-5A65-4DED-B4E5-5F1526B58EAA}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,7 +2359,7 @@
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1892,8 +2369,11 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1903,8 +2383,11 @@
       <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1914,14 +2397,16 @@
       <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rr2XOORkmbMggaNHYveg1dVRm7SdFkYSvacbP1ib9b20OgloAMs/tUWmyHeEtRHuwZ+0pOltEusgtIlvRgDbrw==" saltValue="HNsFYM35m1nXBINGh2loKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/template/template.xlsx
+++ b/assets/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bku_rekt\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3FBC30-4D65-45B8-AD04-E7FC537453C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA9843B-4275-47CA-B7BE-3247A7501FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DAA1265B-2F08-4CC4-8DA7-9EA8F09D305B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Jenis</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>BPP FISIP</t>
+  </si>
+  <si>
+    <t>Setor</t>
+  </si>
+  <si>
+    <t>Pungut</t>
+  </si>
+  <si>
+    <t>Jenis Pajak</t>
+  </si>
+  <si>
+    <t>Nama Unit</t>
   </si>
 </sst>
 </file>
@@ -275,20 +287,17 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,11 +305,14 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -333,8 +345,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -350,7 +362,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="99060" y="76200"/>
-          <a:ext cx="4236720" cy="3512820"/>
+          <a:ext cx="4236720" cy="3726180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -713,7 +725,70 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>10. Isi "</a:t>
+            <a:t>10. Jika data "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pajak</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>" diisi, pilih juga "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>jenis pajak</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11. Isi "</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
@@ -788,7 +863,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>11. Kosongkan data "</a:t>
+            <a:t>12. Kosongkan data "</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
@@ -852,7 +927,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>12. Tidak diperbolehkan melakukan pengaturan lain berbeda dari template awal.</a:t>
+            <a:t>13. Tidak diperbolehkan melakukan pengaturan lain berbeda dari template awal.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2162,10 +2237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F6C51C-CA0A-4475-AF47-3581B69ACD68}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2183,66 +2258,69 @@
     <col min="15" max="15" width="12.88671875" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.21875" style="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" style="12"/>
-    <col min="18" max="18" width="8.88671875" style="25"/>
-    <col min="19" max="16384" width="8.88671875" style="4"/>
+    <col min="18" max="19" width="10.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="20" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="24" t="s">
-        <v>22</v>
+      <c r="R1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="18"/>
+    <row r="2" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
@@ -2258,26 +2336,28 @@
       <c r="L2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="24"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G3" s="9"/>
       <c r="M3" s="16">
         <f>G3-(SUM(H3:L3))</f>
         <v>0</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="17" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ePBu5K5/gORXiS0iSHnSUt29XeEdvU0GK7BuW/uvZO5tqxaDXPgaERAxmhp/aUQx/UqPW2J2jggooC+dhjnBug==" saltValue="jcHdxQ3tH6r1FiUmjMxbIA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
-  <mergeCells count="14">
+  <sheetProtection algorithmName="SHA-512" hashValue="CePN4teLIY9w5pGbliNNLRu/6AsdYJFhy7Ctn/qRMMrsmrGgmEEiqJe0UAfUSILxiO7EQbcLh5QCacE1yfNfVA==" saltValue="otf++XuoA3921Szi5KIjVQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <mergeCells count="15">
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
@@ -2297,7 +2377,7 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D108428-617F-4D58-A5E1-5BE09B17C212}">
           <x14:formula1>
             <xm:f>'Master Data'!$C$2:$C$3</xm:f>
@@ -2320,7 +2400,13 @@
           <x14:formula1>
             <xm:f>'Master Data'!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>R3</xm:sqref>
+          <xm:sqref>R3:R1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7DD992E2-2B62-4025-852D-C87299BAB205}">
+          <x14:formula1>
+            <xm:f>'Master Data'!$I$2:$I$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>S1:S1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2333,12 +2419,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <sheetProtection algorithmName="SHA-512" hashValue="quZ9xw6arQqp0TtaQlSWSKZdkOnOmgezY+9zRmdjyvOiMFGyGHtN1Zkqy1zdgdaTBN3e3dvoEpsSIlL3W82Gww==" saltValue="Gd8fw6MKWG0VTxi/eOkEVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nLENgWmO5V9zjw4obRrDHgzLtTJPNwyNmhNI+orWdORZGa3Io4OqCydxsbvC5/bvMuxupQ+MGu28u05HSAiLvA==" saltValue="NoDg4iMRy8owKWBSyMwwbg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2346,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755471FA-5A65-4DED-B4E5-5F1526B58EAA}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2359,7 +2445,7 @@
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2372,8 +2458,11 @@
       <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -2386,8 +2475,11 @@
       <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -2400,13 +2492,17 @@
       <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Xf/HS5IDqPV0LVeYaaCcszAbJLqUawAmkN7gVxZffr/sxhTMSKgLPxTD4W2Pkd6YWkCYH/6+dvNaJQl5ztkJ/Q==" saltValue="xWbeWO7K0AwmltCMwJ69Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/template/template.xlsx
+++ b/assets/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bku_rekt\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA9843B-4275-47CA-B7BE-3247A7501FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0861C73-C6D7-4456-9B0B-279E1EA30DE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DAA1265B-2F08-4CC4-8DA7-9EA8F09D305B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{DAA1265B-2F08-4CC4-8DA7-9EA8F09D305B}"/>
   </bookViews>
   <sheets>
     <sheet name="Kontrol Transaksi" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Jenis</t>
   </si>
@@ -2239,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F6C51C-CA0A-4475-AF47-3581B69ACD68}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2353,9 +2353,12 @@
       <c r="R3" s="17" t="s">
         <v>27</v>
       </c>
+      <c r="S3" s="17" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CePN4teLIY9w5pGbliNNLRu/6AsdYJFhy7Ctn/qRMMrsmrGgmEEiqJe0UAfUSILxiO7EQbcLh5QCacE1yfNfVA==" saltValue="otf++XuoA3921Szi5KIjVQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pQppl0M8mlQTVGWibUnJyk6GB2hxNd5/28zEbdP1VhO2ZaRbnQY/A/0s+VrQslYCzJBBIRuDhWNYsPiIQR1FKA==" saltValue="8jJpPmRmQiLD0Y2gY9A8eg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="R1:R2"/>
@@ -2404,7 +2407,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7DD992E2-2B62-4025-852D-C87299BAB205}">
           <x14:formula1>
-            <xm:f>'Master Data'!$I$2:$I$3</xm:f>
+            <xm:f>'Master Data'!$I$2:$I$4</xm:f>
           </x14:formula1>
           <xm:sqref>S1:S1048576</xm:sqref>
         </x14:dataValidation>
@@ -2418,13 +2421,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8485484-3CB7-45DD-83E5-F62039F4FA8C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <sheetProtection algorithmName="SHA-512" hashValue="nLENgWmO5V9zjw4obRrDHgzLtTJPNwyNmhNI+orWdORZGa3Io4OqCydxsbvC5/bvMuxupQ+MGu28u05HSAiLvA==" saltValue="NoDg4iMRy8owKWBSyMwwbg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LKbv0F1pDWzELm9/S7wMhm1J6oSWqX68yPLlf/vQ6tQbhevb42DD6gDJ/dh9wK4/na0DfoTzE/gox1FwhxiDoA==" saltValue="OAl8iY5B44rB1bFqgspYSg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2434,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755471FA-5A65-4DED-B4E5-5F1526B58EAA}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2476,7 +2479,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2493,16 +2496,19 @@
         <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Xf/HS5IDqPV0LVeYaaCcszAbJLqUawAmkN7gVxZffr/sxhTMSKgLPxTD4W2Pkd6YWkCYH/6+dvNaJQl5ztkJ/Q==" saltValue="xWbeWO7K0AwmltCMwJ69Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L9IIneS3CvRrdIm+d6IYhKkUtyfITha0l0dyQxN6BCpnk2ESrz40p/eNXhIyo6h/rIhzqC1GfOVrcWIVF+FCsQ==" saltValue="luAHe1W/nDK4k4BgBBV85Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>